--- a/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
@@ -259,14 +259,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="exclusion_rules" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="store_policy" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -59,6 +60,60 @@
   </si>
   <si>
     <t xml:space="preserve">additional display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero SKU Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK COUNTRY SNACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINGLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORITOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT, OT</t>
   </si>
 </sst>
 </file>
@@ -68,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,6 +153,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -154,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +238,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -256,17 +329,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -324,6 +397,62 @@
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -335,4 +464,97 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -38,6 +38,24 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smart_attribute_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero SKU Availability - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include</t>
   </si>
   <si>
@@ -47,73 +65,73 @@
     <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smart_attribute_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional display</t>
+    <t xml:space="preserve">Sensations Greater Linear Space vs Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doritos Greater Linear space vs Pringles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Full Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Full Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero SKU SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Segment SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK COUNTRY SNACKS, AKSAM PALUSZKI, LAJKONIK PALUSZKI, ALKA ELEPHANT, RUMPLERS, TABITHA, CHEF'S LARDER, BOROMIR, COFRESH, JIFFY POP, CROCO, THE CURATORS, FRESHERS, FUDCO, GEFEN, GINNI'S, OH MY GURU!, HALDIRAMS, HALDIRAMS SNACKS, INDIE BAY SNACKS, INNATE, JACK-LNK'S, EAZY-PP-PPCRN, ZWEIFEL CRISPS, HUNKY DORYS CRISPS, LAJKONIK JUNIOR, LOVE CHIN CHIN, NISHAS SNACKS, NUTELLA, OSEM SAVOURY SNACK, OUR LITTLE REBELL!ON, EPIC, CRAWFORDS, FLIPZ, OATIS, RYMUT SNACKS, GINCO, SUNSHINE SNACKS, JAY'S, MIDLAND SNACKS, RED MILL SAVOURY SNACKS, SENSIBLE PORTIONS, VISCONTI SNACKS, WELL &amp; TRULY SNACKS, WILD WEST, WILDING'S, BLUE DRAGON, BEPPS, BLUE DIAMOND, COFRESH SNACKS, SCHAR, OLD EL PASO, PLANTERS, LINWOODS, CYPRESSA, KOHINOOR SNACKS, KOIKEYA, PALUSZKI, LORENZ CRISPS, MCCOLGAN, ITSU, NAIRNS, NATURES STORE SNACKS, NIM'S, BAMBA SNACKS, BISSLI SNACKS, SHARWOODS, MR PORKY SNACKS, TYGRYSKI, THE REAL PORK CRACKLING CO SNACKS, THE SNAFFLING PIG CO, WHITWORTHS, YUM &amp; YAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Price Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings per Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Space Per Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_type</t>
   </si>
   <si>
     <t xml:space="preserve">Hero SKU Space to Sales Index</t>
   </si>
   <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK COUNTRY SNACKS</t>
+    <t xml:space="preserve">TT</t>
   </si>
   <si>
     <t xml:space="preserve">Brand Space to Sales Index</t>
   </si>
   <si>
-    <t xml:space="preserve">PRINGLES</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub Brand Space to Sales Index</t>
   </si>
   <si>
     <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
   </si>
   <si>
-    <t xml:space="preserve">DORITOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_attribute_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_attribute_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
     <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT, OT</t>
   </si>
 </sst>
 </file>
@@ -123,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,12 +171,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,22 +241,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,18 +329,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,102 +360,284 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -471,81 +656,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>24</v>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/Inclusion_Exclusion_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -38,6 +38,15 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
@@ -53,85 +62,58 @@
     <t xml:space="preserve">additional display</t>
   </si>
   <si>
-    <t xml:space="preserve">Hero SKU Availability - SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensations Greater Linear Space vs Kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doritos Greater Linear space vs Pringles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Full Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Full Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hero SKU SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Brand SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo Segment SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Blocking</t>
+    <t xml:space="preserve">Hero SKU Space to Sales Index</t>
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">BLACK COUNTRY SNACKS, AKSAM PALUSZKI, LAJKONIK PALUSZKI, ALKA ELEPHANT, RUMPLERS, TABITHA, CHEF'S LARDER, BOROMIR, COFRESH, JIFFY POP, CROCO, THE CURATORS, FRESHERS, FUDCO, GEFEN, GINNI'S, OH MY GURU!, HALDIRAMS, HALDIRAMS SNACKS, INDIE BAY SNACKS, INNATE, JACK-LNK'S, EAZY-PP-PPCRN, ZWEIFEL CRISPS, HUNKY DORYS CRISPS, LAJKONIK JUNIOR, LOVE CHIN CHIN, NISHAS SNACKS, NUTELLA, OSEM SAVOURY SNACK, OUR LITTLE REBELL!ON, EPIC, CRAWFORDS, FLIPZ, OATIS, RYMUT SNACKS, GINCO, SUNSHINE SNACKS, JAY'S, MIDLAND SNACKS, RED MILL SAVOURY SNACKS, SENSIBLE PORTIONS, VISCONTI SNACKS, WELL &amp; TRULY SNACKS, WILD WEST, WILDING'S, BLUE DRAGON, BEPPS, BLUE DIAMOND, COFRESH SNACKS, SCHAR, OLD EL PASO, PLANTERS, LINWOODS, CYPRESSA, KOHINOOR SNACKS, KOIKEYA, PALUSZKI, LORENZ CRISPS, MCCOLGAN, ITSU, NAIRNS, NATURES STORE SNACKS, NIM'S, BAMBA SNACKS, BISSLI SNACKS, SHARWOODS, MR PORKY SNACKS, TYGRYSKI, THE REAL PORK CRACKLING CO SNACKS, THE SNAFFLING PIG CO, WHITWORTHS, YUM &amp; YAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Price Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings per Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Space Per Product</t>
+    <t xml:space="preserve">BLACK COUNTRY SNACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINGLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORITOS</t>
   </si>
   <si>
     <t xml:space="preserve">additional_attribute_1</t>
   </si>
   <si>
+    <t xml:space="preserve">additional_attribute_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">store_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Hero SKU Space to Sales Index</t>
+    <t xml:space="preserve">OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE</t>
   </si>
   <si>
     <t xml:space="preserve">TT</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Brand Space to Sales Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo Segment Space to Sales Index</t>
-  </si>
-  <si>
     <t xml:space="preserve">PepsiCo Sub Segment Space to Sales Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT, OT</t>
   </si>
 </sst>
 </file>
@@ -227,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +220,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -329,21 +319,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,284 +347,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -656,69 +461,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
